--- a/config_11.9/zhizhun_rank_match_config.xlsx
+++ b/config_11.9/zhizhun_rank_match_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26760" windowHeight="15270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26760" windowHeight="15270" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cell_award|格子奖励" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="209">
   <si>
     <t>id|方格序号</t>
   </si>
@@ -412,6 +412,82 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>10000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,500</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1</t>
     </r>
@@ -424,24 +500,427 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>50000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
+      <t>,1000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,3000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,8000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,3000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,15000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,20000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,4000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,20000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,15000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1000</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -458,25 +937,71 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50000</t>
-    </r>
+      <t>,10</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_doubled</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,15000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,40000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,20000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -492,8 +1017,1265 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000000</t>
-    </r>
+      <t>,40000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,20000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,60000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,30000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,50000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,20000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,50000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,100000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,50000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,20000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,30000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,20000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,80000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,250000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,100000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,150000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,200000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,100000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,500000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,150000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,200000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,100000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,150000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,400000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,80000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,120000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,300000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,30000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,80000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,50000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,100000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,200000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,800000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,200000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,200000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,300000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1200000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,400000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,500000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2000000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,400000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,300000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,300000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,500000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,800000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,600000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,500000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5000000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,600000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,400000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,500000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,3000000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,300000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,250000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2000000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,150000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,200000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,150000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,200000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5000000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,8000000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1000000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,600000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10000000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1000000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,800000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -509,7 +2291,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000000</t>
+      <t>5</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -526,24 +2308,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>500000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000</t>
+      <t>5</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -560,28 +2325,75 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000000</t>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -598,7 +2410,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000000</t>
+      <t>5</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -615,24 +2427,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000000</t>
+      <t>0</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -649,80 +2444,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,500</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5</t>
-    </r>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -738,1951 +2465,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,1000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,10000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,3000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,8000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,3000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,15000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,10000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,2000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,20000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,4000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,20000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,15000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,10</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,10</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,10000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,10</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,2000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,10</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_doubled</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,10000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,15000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,40000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,20000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,40000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,10000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,20000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,60000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,30000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,50000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,20000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,50000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,100000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,50000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,20000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,30000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,20000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,80000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,250000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,100000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,150000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,200000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,100000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,500000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,150000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,200000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,100000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,150000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,400000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,80000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,120000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,300000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,30000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,80000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,50000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,100000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,200000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,800000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,200000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,200000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,300000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1200000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,400000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,500000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,2000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,400000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,300000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,300000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,500000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,800000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,600000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,500000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,600000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,400000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,500000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,3000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,300000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,250000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,2000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,150000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,200000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,150000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,200000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,8000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,600000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,10000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,800000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
+      <t>00</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2691,24 +2474,35 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
+    <t>50000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2717,7 +2511,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -2857,7 +2651,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2956,7 +2750,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2991,7 +2785,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3202,7 +2996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K36" sqref="K35:L36"/>
     </sheetView>
   </sheetViews>
@@ -3251,25 +3045,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -3282,25 +3076,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -3308,25 +3102,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -3334,25 +3128,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -3360,25 +3154,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -3391,25 +3185,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>104</v>
-      </c>
       <c r="E9" s="15" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -3417,25 +3211,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F10" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -3443,25 +3237,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -3469,25 +3263,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -3495,25 +3289,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -3526,25 +3320,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>109</v>
-      </c>
       <c r="D15" s="15" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -3552,25 +3346,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -3578,25 +3372,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -3604,25 +3398,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -3630,25 +3424,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -3661,25 +3455,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -3687,25 +3481,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -3713,25 +3507,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -3739,25 +3533,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -3765,25 +3559,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -3791,25 +3585,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3959,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3977,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4064,7 +3858,7 @@
         <v>200</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>27</v>
@@ -4072,6 +3866,7 @@
       <c r="G3" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
@@ -4087,7 +3882,7 @@
         <v>400</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>27</v>
@@ -4095,6 +3890,7 @@
       <c r="G4" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -4110,7 +3906,7 @@
         <v>700</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>27</v>
@@ -4133,7 +3929,7 @@
         <v>1000</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>27</v>
@@ -4156,7 +3952,7 @@
         <v>1300</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>27</v>
@@ -4179,7 +3975,7 @@
         <v>1700</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>28</v>
@@ -4202,7 +3998,7 @@
         <v>2100</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>28</v>
@@ -4225,7 +4021,7 @@
         <v>2500</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>28</v>
@@ -4248,7 +4044,7 @@
         <v>3000</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>28</v>
@@ -4271,7 +4067,7 @@
         <v>3600</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>28</v>
@@ -4294,7 +4090,7 @@
         <v>4200</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>28</v>
@@ -4317,7 +4113,7 @@
         <v>5000</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>33</v>
@@ -4340,7 +4136,7 @@
         <v>6500</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>33</v>
@@ -4363,7 +4159,7 @@
         <v>8000</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>33</v>
@@ -4386,7 +4182,7 @@
         <v>10000</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>33</v>
@@ -4397,13 +4193,14 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E24" s="15" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4456,10 +4253,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -4475,10 +4272,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -4489,10 +4286,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -4503,10 +4300,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -4517,10 +4314,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -4536,10 +4333,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -4550,10 +4347,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -4564,10 +4361,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -4578,10 +4375,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -4597,10 +4394,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -4611,10 +4408,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -4625,10 +4422,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -4639,10 +4436,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -4658,10 +4455,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -4672,10 +4469,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -4686,10 +4483,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.9/zhizhun_rank_match_config.xlsx
+++ b/config_11.9/zhizhun_rank_match_config.xlsx
@@ -94,7 +94,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="226">
   <si>
     <t>id|方格序号</t>
   </si>
@@ -2503,6 +2503,62 @@
   </si>
   <si>
     <t>50000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜Ⅰ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜Ⅱ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜Ⅲ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银Ⅰ</t>
+  </si>
+  <si>
+    <t>白银Ⅱ</t>
+  </si>
+  <si>
+    <t>白银Ⅲ</t>
+  </si>
+  <si>
+    <t>黄金Ⅰ</t>
+  </si>
+  <si>
+    <t>黄金Ⅱ</t>
+  </si>
+  <si>
+    <t>黄金Ⅲ</t>
+  </si>
+  <si>
+    <t>白金Ⅰ</t>
+  </si>
+  <si>
+    <t>白金Ⅱ</t>
+  </si>
+  <si>
+    <t>白金Ⅲ</t>
+  </si>
+  <si>
+    <t>钻石Ⅰ</t>
+  </si>
+  <si>
+    <t>钻石Ⅱ</t>
+  </si>
+  <si>
+    <t>钻石Ⅲ</t>
+  </si>
+  <si>
+    <t>至尊</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3769,26 +3825,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="5" customWidth="1"/>
-    <col min="3" max="5" width="16.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13" style="5" customWidth="1"/>
+    <col min="2" max="3" width="21.5" style="5" customWidth="1"/>
+    <col min="4" max="6" width="16.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="28" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -3796,28 +3852,31 @@
         <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
+      <c r="L1" s="3"/>
       <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3825,74 +3884,83 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="14">
+      <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="14">
+      <c r="E3" s="14">
         <v>200</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="14">
+      <c r="E4" s="14">
         <v>400</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3900,68 +3968,77 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="14">
+      <c r="E5" s="14">
         <v>700</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="14">
+      <c r="E6" s="14">
         <v>1000</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="14">
+      <c r="E7" s="14">
         <v>1300</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3969,68 +4046,77 @@
         <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="14">
+      <c r="E8" s="14">
         <v>1700</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="F8" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="14">
+      <c r="E9" s="14">
         <v>2100</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14">
+      <c r="E10" s="14">
         <v>2500</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4038,68 +4124,77 @@
         <v>31</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="14">
+      <c r="E11" s="14">
         <v>3000</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="14">
+      <c r="E12" s="14">
         <v>3600</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="14">
+      <c r="E13" s="14">
         <v>4200</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4107,92 +4202,104 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="14">
+      <c r="E14" s="14">
         <v>5000</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="14">
+      <c r="E15" s="14">
         <v>6500</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="14">
+      <c r="E16" s="14">
         <v>8000</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="F16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="14">
+      <c r="E17" s="14">
         <v>10000</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="F17" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E24" s="15" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F24" s="15" t="s">
         <v>70</v>
       </c>
     </row>
